--- a/other/dataframe-illustration.xlsx
+++ b/other/dataframe-illustration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-first-steps-with-python-for-spreadsheet-users\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000CF95-2A0F-47B1-9B41-06722FD11F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159D488B-B99F-4686-AE1A-1971EE8B9D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5437F79E-3492-4EDD-AF05-D18D712E87D4}"/>
   </bookViews>
   <sheets>
     <sheet name="df" sheetId="6" r:id="rId1"/>
@@ -388,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A9B06B3-6049-4E06-BD2B-608398255312}" name="Table1" displayName="Table1" ref="C3:E7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="C3:E7" xr:uid="{F3AF13C7-86ED-45C9-9DA0-5AE7C8562560}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A9B06B3-6049-4E06-BD2B-608398255312}" name="Table1" displayName="Table1" ref="C5:E9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="C5:E9" xr:uid="{F3AF13C7-86ED-45C9-9DA0-5AE7C8562560}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -712,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A21CF2-F045-4933-8F09-4E42461A7DCE}">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B5:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,71 +726,71 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>71</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E034D25-8000-4064-9CAD-59DF8614CB30}">
   <dimension ref="B3:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
